--- a/Code/Results/Cases/Case_0_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_206/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1536667046006386</v>
+        <v>0.04904614488327752</v>
       </c>
       <c r="D2">
-        <v>0.05154744798468869</v>
+        <v>0.1367748167803953</v>
       </c>
       <c r="E2">
-        <v>0.1189349028132085</v>
+        <v>0.1464392491620963</v>
       </c>
       <c r="F2">
-        <v>2.783450340050251</v>
+        <v>2.05016538974661</v>
       </c>
       <c r="G2">
-        <v>0.0007403285054221374</v>
+        <v>0.00243455647104717</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2442508774887244</v>
+        <v>0.200971130535109</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
-        <v>8.317726353357386</v>
+        <v>5.513759881882606</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1320276931314623</v>
+        <v>0.0435296659521498</v>
       </c>
       <c r="D3">
-        <v>0.05010176256897125</v>
+        <v>0.1371026173879173</v>
       </c>
       <c r="E3">
-        <v>0.1068347623647199</v>
+        <v>0.1446177847971448</v>
       </c>
       <c r="F3">
-        <v>2.436223334948508</v>
+        <v>1.980028762343835</v>
       </c>
       <c r="G3">
-        <v>0.0007493337050717558</v>
+        <v>0.002440342032222053</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2146217967986104</v>
+        <v>0.1953332899244486</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
-        <v>7.252290545184849</v>
+        <v>5.291219219213872</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1189993354369108</v>
+        <v>0.04016292325233906</v>
       </c>
       <c r="D4">
-        <v>0.04927705683756045</v>
+        <v>0.1373433076148487</v>
       </c>
       <c r="E4">
-        <v>0.09964483310762873</v>
+        <v>0.1435801722260521</v>
       </c>
       <c r="F4">
-        <v>2.228689463387028</v>
+        <v>1.938296182754442</v>
       </c>
       <c r="G4">
-        <v>0.0007550011747884389</v>
+        <v>0.002444081947155112</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1969466096437102</v>
+        <v>0.1920013065015809</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
-        <v>6.615052516608387</v>
+        <v>5.158232048430705</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1137453792327676</v>
+        <v>0.03879591925561954</v>
       </c>
       <c r="D5">
-        <v>0.04895588225524961</v>
+        <v>0.1374513150846894</v>
       </c>
       <c r="E5">
-        <v>0.09676871941748999</v>
+        <v>0.1431775837974101</v>
       </c>
       <c r="F5">
-        <v>2.145365766530603</v>
+        <v>1.921622456926414</v>
       </c>
       <c r="G5">
-        <v>0.0007573476404079695</v>
+        <v>0.002445653326600058</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1898581418072709</v>
+        <v>0.190675899207605</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>6.359091640758493</v>
+        <v>5.104950414272651</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1128760317114654</v>
+        <v>0.0385692249258085</v>
       </c>
       <c r="D6">
-        <v>0.04890342579916407</v>
+        <v>0.1374698494004569</v>
       </c>
       <c r="E6">
-        <v>0.09629421875829181</v>
+        <v>0.143111955325697</v>
       </c>
       <c r="F6">
-        <v>2.131600468351849</v>
+        <v>1.918873824376234</v>
       </c>
       <c r="G6">
-        <v>0.0007577395589605613</v>
+        <v>0.00244591711691869</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1886875797771381</v>
+        <v>0.1904577674833092</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>6.31679927705386</v>
+        <v>5.096157901393042</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1189282673786778</v>
+        <v>0.0401444674392053</v>
       </c>
       <c r="D7">
-        <v>0.04927266620301651</v>
+        <v>0.1373447240420163</v>
       </c>
       <c r="E7">
-        <v>0.09960583486694574</v>
+        <v>0.1435746608810646</v>
       </c>
       <c r="F7">
-        <v>2.227560898562942</v>
+        <v>1.938069971089746</v>
       </c>
       <c r="G7">
-        <v>0.0007550326678031052</v>
+        <v>0.002444102947451032</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1968505689376769</v>
+        <v>0.1919833006640488</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
-        <v>6.611586159904959</v>
+        <v>5.157509791371865</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1461458765661234</v>
+        <v>0.04713973221768697</v>
       </c>
       <c r="D8">
-        <v>0.05103532214441131</v>
+        <v>0.1368796679006117</v>
       </c>
       <c r="E8">
-        <v>0.1147089864080009</v>
+        <v>0.1457944037207461</v>
       </c>
       <c r="F8">
-        <v>2.662438923806064</v>
+        <v>2.02570454850482</v>
       </c>
       <c r="G8">
-        <v>0.0007434061729529596</v>
+        <v>0.002436512508591203</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2339174572382348</v>
+        <v>0.1990001632843672</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209825</v>
       </c>
       <c r="O8">
-        <v>7.946504003064376</v>
+        <v>5.436265195847056</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2020599777680872</v>
+        <v>0.06102711453344511</v>
       </c>
       <c r="D9">
-        <v>0.05503859071760075</v>
+        <v>0.1362800148173093</v>
       </c>
       <c r="E9">
-        <v>0.1465536544179109</v>
+        <v>0.1507915675396667</v>
       </c>
       <c r="F9">
-        <v>3.569182376989716</v>
+        <v>2.208232907395399</v>
       </c>
       <c r="G9">
-        <v>0.0007215939582889686</v>
+        <v>0.002423108042852531</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3115119314373231</v>
+        <v>0.2137993797248896</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>10.72636972917479</v>
+        <v>6.012248861075818</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.245475748349719</v>
+        <v>0.07134550460941114</v>
       </c>
       <c r="D10">
-        <v>0.05838834610845822</v>
+        <v>0.1360293435454452</v>
       </c>
       <c r="E10">
-        <v>0.171829792052506</v>
+        <v>0.1548610410017872</v>
       </c>
       <c r="F10">
-        <v>4.282692687706202</v>
+        <v>2.349018070605325</v>
       </c>
       <c r="G10">
-        <v>0.0007059959474537222</v>
+        <v>0.002414151305390133</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3727995796779027</v>
+        <v>0.2253216067525585</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>12.91194074184523</v>
+        <v>6.453859072126306</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2659433538285327</v>
+        <v>0.07606729817744906</v>
       </c>
       <c r="D11">
-        <v>0.06002091085152728</v>
+        <v>0.1359564470757348</v>
       </c>
       <c r="E11">
-        <v>0.1838760230395096</v>
+        <v>0.1567999944200196</v>
       </c>
       <c r="F11">
-        <v>4.621430084190763</v>
+        <v>2.414554617585026</v>
       </c>
       <c r="G11">
-        <v>0.0006989465197029069</v>
+        <v>0.002410267899654984</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4019551565109225</v>
+        <v>0.2307078846769457</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>13.94920750398182</v>
+        <v>6.658884712929989</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2738178842427317</v>
+        <v>0.07785952777632588</v>
       </c>
       <c r="D12">
-        <v>0.06065673213954881</v>
+        <v>0.1359347498808319</v>
       </c>
       <c r="E12">
-        <v>0.1885302761229752</v>
+        <v>0.1575469301407395</v>
       </c>
       <c r="F12">
-        <v>4.752123120939217</v>
+        <v>2.439589128552171</v>
       </c>
       <c r="G12">
-        <v>0.0006962791384628186</v>
+        <v>0.002408824648859085</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4132135104287045</v>
+        <v>0.2327686092154835</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>14.34937156935769</v>
+        <v>6.737126306206733</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2721160870966912</v>
+        <v>0.07747334993821653</v>
       </c>
       <c r="D13">
-        <v>0.06051897900209724</v>
+        <v>0.1359391601632964</v>
       </c>
       <c r="E13">
-        <v>0.1875235365215957</v>
+        <v>0.1573854981983374</v>
       </c>
       <c r="F13">
-        <v>4.723861567005144</v>
+        <v>2.434187794826073</v>
       </c>
       <c r="G13">
-        <v>0.0006968535946731148</v>
+        <v>0.00240913426668442</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4107785282580494</v>
+        <v>0.2323238548572135</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>14.26284013125519</v>
+        <v>6.720248635271673</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.266588582598672</v>
+        <v>0.07621466101781493</v>
       </c>
       <c r="D14">
-        <v>0.06007285505307891</v>
+        <v>0.1359545436921366</v>
       </c>
       <c r="E14">
-        <v>0.1842569881236074</v>
+        <v>0.1568611903521031</v>
       </c>
       <c r="F14">
-        <v>4.632131336070842</v>
+        <v>2.416609852933618</v>
       </c>
       <c r="G14">
-        <v>0.0006987270595988534</v>
+        <v>0.002410148615865744</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.402876806419556</v>
+        <v>0.2308769982902845</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>13.98197397104605</v>
+        <v>6.665309566532869</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2632196324627216</v>
+        <v>0.07544422848580723</v>
       </c>
       <c r="D15">
-        <v>0.05980194753632162</v>
+        <v>0.1359647355959055</v>
       </c>
       <c r="E15">
-        <v>0.1822686410892231</v>
+        <v>0.1565416924997649</v>
       </c>
       <c r="F15">
-        <v>4.576271647603022</v>
+        <v>2.405871225399551</v>
       </c>
       <c r="G15">
-        <v>0.0006998747346462087</v>
+        <v>0.002410773486131744</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3980662503390988</v>
+        <v>0.2299935064924625</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>13.81093412182599</v>
+        <v>6.63173655416108</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2441542777358876</v>
+        <v>0.07103750082856664</v>
       </c>
       <c r="D16">
-        <v>0.05828400368458375</v>
+        <v>0.1360349345466503</v>
       </c>
       <c r="E16">
-        <v>0.1710547001099059</v>
+        <v>0.1547360980360182</v>
       </c>
       <c r="F16">
-        <v>4.260871770111549</v>
+        <v>2.344765360487287</v>
       </c>
       <c r="G16">
-        <v>0.0007064572002052093</v>
+        <v>0.002414408925553005</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3709226715051557</v>
+        <v>0.2249725343124993</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>12.84511589990251</v>
+        <v>6.440544070253338</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2326558193819608</v>
+        <v>0.06834138805399448</v>
       </c>
       <c r="D17">
-        <v>0.05738195321323047</v>
+        <v>0.136088529159629</v>
       </c>
       <c r="E17">
-        <v>0.1643248160684472</v>
+        <v>0.153650950788645</v>
       </c>
       <c r="F17">
-        <v>4.071265000293778</v>
+        <v>2.307663033581065</v>
       </c>
       <c r="G17">
-        <v>0.0007105041365558368</v>
+        <v>0.002416687968493563</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3546203950083537</v>
+        <v>0.2219295774007861</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>12.26442518272336</v>
+        <v>6.32431854201144</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2261083347838593</v>
+        <v>0.06679327129147339</v>
       </c>
       <c r="D18">
-        <v>0.05687321907785758</v>
+        <v>0.1361232276543021</v>
       </c>
       <c r="E18">
-        <v>0.1605045997377097</v>
+        <v>0.1530350553665372</v>
       </c>
       <c r="F18">
-        <v>3.963514454766113</v>
+        <v>2.286463095253197</v>
       </c>
       <c r="G18">
-        <v>0.0007128364860577285</v>
+        <v>0.002418016806669959</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3453614596671457</v>
+        <v>0.2201929597447361</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>11.93439709655229</v>
+        <v>6.257857391018604</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2239022468826875</v>
+        <v>0.06626954953216568</v>
       </c>
       <c r="D19">
-        <v>0.05670265025745636</v>
+        <v>0.1361356412928245</v>
       </c>
       <c r="E19">
-        <v>0.1592194509709053</v>
+        <v>0.1528279387180866</v>
       </c>
       <c r="F19">
-        <v>3.927245592330223</v>
+        <v>2.279309185331812</v>
       </c>
       <c r="G19">
-        <v>0.0007136271069936778</v>
+        <v>0.002418469824216481</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3422458007376861</v>
+        <v>0.2196073011980104</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>11.82330405119041</v>
+        <v>6.235421298198503</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2338728665801568</v>
+        <v>0.06862812184805023</v>
       </c>
       <c r="D20">
-        <v>0.0574769192750324</v>
+        <v>0.1360824232132813</v>
       </c>
       <c r="E20">
-        <v>0.165035890118201</v>
+        <v>0.1537656118770911</v>
       </c>
       <c r="F20">
-        <v>4.091311183078403</v>
+        <v>2.31159809642412</v>
       </c>
       <c r="G20">
-        <v>0.0007100728818114051</v>
+        <v>0.002416443499604631</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3563433871497068</v>
+        <v>0.2222520949687379</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
-        <v>12.32582186387395</v>
+        <v>6.336650659907093</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2682086005098796</v>
+        <v>0.07658425336667563</v>
       </c>
       <c r="D21">
-        <v>0.06020339746384451</v>
+        <v>0.1359498649216775</v>
       </c>
       <c r="E21">
-        <v>0.1852138179808733</v>
+        <v>0.1570148470531691</v>
       </c>
       <c r="F21">
-        <v>4.659005651658447</v>
+        <v>2.421767003689467</v>
       </c>
       <c r="G21">
-        <v>0.0006981767610059934</v>
+        <v>0.002409849937127243</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4051915211706216</v>
+        <v>0.2313014016787349</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
-        <v>14.06426062491823</v>
+        <v>6.6814300756796</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2913832994739778</v>
+        <v>0.08180854445838293</v>
       </c>
       <c r="D22">
-        <v>0.0620890710887636</v>
+        <v>0.1358976581555851</v>
       </c>
       <c r="E22">
-        <v>0.1989491743514975</v>
+        <v>0.1592124517862601</v>
       </c>
       <c r="F22">
-        <v>5.044362986308442</v>
+        <v>2.495036253509966</v>
       </c>
       <c r="G22">
-        <v>0.0006904114237034811</v>
+        <v>0.00240569977638522</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4384062497358769</v>
+        <v>0.2373385043006238</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
-        <v>15.24411131330112</v>
+        <v>6.910281055859514</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2789395817723488</v>
+        <v>0.07901794153349329</v>
       </c>
       <c r="D23">
-        <v>0.06107242272052105</v>
+        <v>0.1359223743079596</v>
       </c>
       <c r="E23">
-        <v>0.191563046224438</v>
+        <v>0.1580327467680078</v>
       </c>
       <c r="F23">
-        <v>4.837234243618269</v>
+        <v>2.455814227775591</v>
       </c>
       <c r="G23">
-        <v>0.0006945567720351973</v>
+        <v>0.002407900290106358</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4205480113849376</v>
+        <v>0.2341050664453377</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
-        <v>14.60996069977466</v>
+        <v>6.787814350591134</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2333224444164443</v>
+        <v>0.06849848355020072</v>
       </c>
       <c r="D24">
-        <v>0.05743395453021094</v>
+        <v>0.1360851716060196</v>
       </c>
       <c r="E24">
-        <v>0.1647142622903139</v>
+        <v>0.1537137487797153</v>
       </c>
       <c r="F24">
-        <v>4.082244417041494</v>
+        <v>2.309818647658062</v>
       </c>
       <c r="G24">
-        <v>0.000710267834033025</v>
+        <v>0.002416553966016216</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3555640715133563</v>
+        <v>0.2221062448667368</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>12.29805261663574</v>
+        <v>6.331074193523932</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1865868093571095</v>
+        <v>0.05725082268372716</v>
       </c>
       <c r="D25">
-        <v>0.05388989332325522</v>
+        <v>0.1364088544316537</v>
       </c>
       <c r="E25">
-        <v>0.1376507044526001</v>
+        <v>0.1493701888532932</v>
       </c>
       <c r="F25">
-        <v>3.316737074165445</v>
+        <v>2.15769341987405</v>
       </c>
       <c r="G25">
-        <v>0.0007274056850169878</v>
+        <v>0.002426576956464862</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2898729745173227</v>
+        <v>0.2096829376187799</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>9.9527736942714</v>
+        <v>5.853232542874196</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_206/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04904614488327752</v>
+        <v>0.153666704600866</v>
       </c>
       <c r="D2">
-        <v>0.1367748167803953</v>
+        <v>0.05154744798479882</v>
       </c>
       <c r="E2">
-        <v>0.1464392491620963</v>
+        <v>0.118934902813205</v>
       </c>
       <c r="F2">
-        <v>2.05016538974661</v>
+        <v>2.783450340050251</v>
       </c>
       <c r="G2">
-        <v>0.00243455647104717</v>
+        <v>0.0007403285053645403</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.200971130535109</v>
+        <v>0.2442508774885965</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>5.513759881882606</v>
+        <v>8.3177263533575</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0435296659521498</v>
+        <v>0.132027693131235</v>
       </c>
       <c r="D3">
-        <v>0.1371026173879173</v>
+        <v>0.05010176256896059</v>
       </c>
       <c r="E3">
-        <v>0.1446177847971448</v>
+        <v>0.1068347623646879</v>
       </c>
       <c r="F3">
-        <v>1.980028762343835</v>
+        <v>2.436223334948494</v>
       </c>
       <c r="G3">
-        <v>0.002440342032222053</v>
+        <v>0.0007493337050180086</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1953332899244486</v>
+        <v>0.2146217967985251</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>5.291219219213872</v>
+        <v>7.252290545184792</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04016292325233906</v>
+        <v>0.1189993354371381</v>
       </c>
       <c r="D4">
-        <v>0.1373433076148487</v>
+        <v>0.04927705683756045</v>
       </c>
       <c r="E4">
-        <v>0.1435801722260521</v>
+        <v>0.09964483310762517</v>
       </c>
       <c r="F4">
-        <v>1.938296182754442</v>
+        <v>2.228689463387028</v>
       </c>
       <c r="G4">
-        <v>0.002444081947155112</v>
+        <v>0.0007550011747827767</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1920013065015809</v>
+        <v>0.1969466096437671</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>5.158232048430705</v>
+        <v>6.615052516608387</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03879591925561954</v>
+        <v>0.1137453792334355</v>
       </c>
       <c r="D5">
-        <v>0.1374513150846894</v>
+        <v>0.04895588225523184</v>
       </c>
       <c r="E5">
-        <v>0.1431775837974101</v>
+        <v>0.09676871941745802</v>
       </c>
       <c r="F5">
-        <v>1.921622456926414</v>
+        <v>2.145365766530603</v>
       </c>
       <c r="G5">
-        <v>0.002445653326600058</v>
+        <v>0.0007573476403444795</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.190675899207605</v>
+        <v>0.1898581418071927</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>5.104950414272651</v>
+        <v>6.35909164075855</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0385692249258085</v>
+        <v>0.1128760317112949</v>
       </c>
       <c r="D6">
-        <v>0.1374698494004569</v>
+        <v>0.04890342579917117</v>
       </c>
       <c r="E6">
-        <v>0.143111955325697</v>
+        <v>0.0962942187582847</v>
       </c>
       <c r="F6">
-        <v>1.918873824376234</v>
+        <v>2.131600468351834</v>
       </c>
       <c r="G6">
-        <v>0.00244591711691869</v>
+        <v>0.0007577395589615605</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1904577674833092</v>
+        <v>0.1886875797770955</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>5.096157901393042</v>
+        <v>6.31679927705386</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0401444674392053</v>
+        <v>0.1189282673784788</v>
       </c>
       <c r="D7">
-        <v>0.1373447240420163</v>
+        <v>0.04927266620290993</v>
       </c>
       <c r="E7">
-        <v>0.1435746608810646</v>
+        <v>0.09960583486694219</v>
       </c>
       <c r="F7">
-        <v>1.938069971089746</v>
+        <v>2.227560898562928</v>
       </c>
       <c r="G7">
-        <v>0.002444102947451032</v>
+        <v>0.0007550326678026353</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1919833006640488</v>
+        <v>0.1968505689376698</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>5.157509791371865</v>
+        <v>6.611586159904903</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04713973221768697</v>
+        <v>0.1461458765656545</v>
       </c>
       <c r="D8">
-        <v>0.1368796679006117</v>
+        <v>0.05103532214440776</v>
       </c>
       <c r="E8">
-        <v>0.1457944037207461</v>
+        <v>0.1147089864080151</v>
       </c>
       <c r="F8">
-        <v>2.02570454850482</v>
+        <v>2.662438923806064</v>
       </c>
       <c r="G8">
-        <v>0.002436512508591203</v>
+        <v>0.0007434061729538426</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1990001632843672</v>
+        <v>0.2339174572382632</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209825</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>5.436265195847056</v>
+        <v>7.946504003064376</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06102711453344511</v>
+        <v>0.2020599777681156</v>
       </c>
       <c r="D9">
-        <v>0.1362800148173093</v>
+        <v>0.05503859071759365</v>
       </c>
       <c r="E9">
-        <v>0.1507915675396667</v>
+        <v>0.1465536544179749</v>
       </c>
       <c r="F9">
-        <v>2.208232907395399</v>
+        <v>3.569182376989772</v>
       </c>
       <c r="G9">
-        <v>0.002423108042852531</v>
+        <v>0.0007215939581631086</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2137993797248896</v>
+        <v>0.3115119314373658</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550619</v>
       </c>
       <c r="O9">
-        <v>6.012248861075818</v>
+        <v>10.72636972917485</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07134550460941114</v>
+        <v>0.2454757483497332</v>
       </c>
       <c r="D10">
-        <v>0.1360293435454452</v>
+        <v>0.05838834610860744</v>
       </c>
       <c r="E10">
-        <v>0.1548610410017872</v>
+        <v>0.171829792052506</v>
       </c>
       <c r="F10">
-        <v>2.349018070605325</v>
+        <v>4.282692687706174</v>
       </c>
       <c r="G10">
-        <v>0.002414151305390133</v>
+        <v>0.000705995947333106</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2253216067525585</v>
+        <v>0.3727995796779169</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837513</v>
       </c>
       <c r="O10">
-        <v>6.453859072126306</v>
+        <v>12.91194074184529</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07606729817744906</v>
+        <v>0.2659433538285327</v>
       </c>
       <c r="D11">
-        <v>0.1359564470757348</v>
+        <v>0.06002091085153438</v>
       </c>
       <c r="E11">
-        <v>0.1567999944200196</v>
+        <v>0.1838760230394669</v>
       </c>
       <c r="F11">
-        <v>2.414554617585026</v>
+        <v>4.621430084190791</v>
       </c>
       <c r="G11">
-        <v>0.002410267899654984</v>
+        <v>0.0006989465197035354</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2307078846769457</v>
+        <v>0.4019551565110646</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
-        <v>6.658884712929989</v>
+        <v>13.94920750398182</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07785952777632588</v>
+        <v>0.2738178842430443</v>
       </c>
       <c r="D12">
-        <v>0.1359347498808319</v>
+        <v>0.06065673213939249</v>
       </c>
       <c r="E12">
-        <v>0.1575469301407395</v>
+        <v>0.1885302761230179</v>
       </c>
       <c r="F12">
-        <v>2.439589128552171</v>
+        <v>4.752123120939245</v>
       </c>
       <c r="G12">
-        <v>0.002408824648859085</v>
+        <v>0.0006962791385149593</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2327686092154835</v>
+        <v>0.4132135104288892</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>6.737126306206733</v>
+        <v>14.3493715693578</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07747334993821653</v>
+        <v>0.2721160870967054</v>
       </c>
       <c r="D13">
-        <v>0.1359391601632964</v>
+        <v>0.0605189790016567</v>
       </c>
       <c r="E13">
-        <v>0.1573854981983374</v>
+        <v>0.1875235365215957</v>
       </c>
       <c r="F13">
-        <v>2.434187794826073</v>
+        <v>4.723861567005144</v>
       </c>
       <c r="G13">
-        <v>0.00240913426668442</v>
+        <v>0.0006968535946717825</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2323238548572135</v>
+        <v>0.4107785282581347</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>6.720248635271673</v>
+        <v>14.2628401312553</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07621466101781493</v>
+        <v>0.2665885825988852</v>
       </c>
       <c r="D14">
-        <v>0.1359545436921366</v>
+        <v>0.06007285505307181</v>
       </c>
       <c r="E14">
-        <v>0.1568611903521031</v>
+        <v>0.1842569881235576</v>
       </c>
       <c r="F14">
-        <v>2.416609852933618</v>
+        <v>4.632131336070813</v>
       </c>
       <c r="G14">
-        <v>0.002410148615865744</v>
+        <v>0.0006987270595984093</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2308769982902845</v>
+        <v>0.4028768064196697</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>6.665309566532869</v>
+        <v>13.98197397104616</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07544422848580723</v>
+        <v>0.2632196324625227</v>
       </c>
       <c r="D15">
-        <v>0.1359647355959055</v>
+        <v>0.05980194753617951</v>
       </c>
       <c r="E15">
-        <v>0.1565416924997649</v>
+        <v>0.182268641089216</v>
       </c>
       <c r="F15">
-        <v>2.405871225399551</v>
+        <v>4.576271647602994</v>
       </c>
       <c r="G15">
-        <v>0.002410773486131744</v>
+        <v>0.000699874734630668</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2299935064924625</v>
+        <v>0.3980662503388999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>6.63173655416108</v>
+        <v>13.81093412182599</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07103750082856664</v>
+        <v>0.2441542777358876</v>
       </c>
       <c r="D16">
-        <v>0.1360349345466503</v>
+        <v>0.0582840036847827</v>
       </c>
       <c r="E16">
-        <v>0.1547360980360182</v>
+        <v>0.1710547001099343</v>
       </c>
       <c r="F16">
-        <v>2.344765360487287</v>
+        <v>4.260871770111578</v>
       </c>
       <c r="G16">
-        <v>0.002414408925553005</v>
+        <v>0.0007064572002048506</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2249725343124993</v>
+        <v>0.370922671505113</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>6.440544070253338</v>
+        <v>12.84511589990257</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06834138805399448</v>
+        <v>0.2326558193819466</v>
       </c>
       <c r="D17">
-        <v>0.136088529159629</v>
+        <v>0.05738195321382022</v>
       </c>
       <c r="E17">
-        <v>0.153650950788645</v>
+        <v>0.1643248160684259</v>
       </c>
       <c r="F17">
-        <v>2.307663033581065</v>
+        <v>4.071265000293749</v>
       </c>
       <c r="G17">
-        <v>0.002416687968493563</v>
+        <v>0.0007105041366109649</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2219295774007861</v>
+        <v>0.3546203950082685</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>6.32431854201144</v>
+        <v>12.2644251827233</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06679327129147339</v>
+        <v>0.2261083347836319</v>
       </c>
       <c r="D18">
-        <v>0.1361232276543021</v>
+        <v>0.056873219077751</v>
       </c>
       <c r="E18">
-        <v>0.1530350553665372</v>
+        <v>0.1605045997377594</v>
       </c>
       <c r="F18">
-        <v>2.286463095253197</v>
+        <v>3.96351445476617</v>
       </c>
       <c r="G18">
-        <v>0.002418016806669959</v>
+        <v>0.0007128364860466774</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2201929597447361</v>
+        <v>0.345361459667032</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>6.257857391018604</v>
+        <v>11.93439709655235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06626954953216568</v>
+        <v>0.2239022468822185</v>
       </c>
       <c r="D19">
-        <v>0.1361356412928245</v>
+        <v>0.05670265025732846</v>
       </c>
       <c r="E19">
-        <v>0.1528279387180866</v>
+        <v>0.1592194509709479</v>
       </c>
       <c r="F19">
-        <v>2.279309185331812</v>
+        <v>3.927245592330195</v>
       </c>
       <c r="G19">
-        <v>0.002418469824216481</v>
+        <v>0.0007136271069291111</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2196073011980104</v>
+        <v>0.3422458007376292</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>6.235421298198503</v>
+        <v>11.82330405119041</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06862812184805023</v>
+        <v>0.2338728665802279</v>
       </c>
       <c r="D20">
-        <v>0.1360824232132813</v>
+        <v>0.05747691927495424</v>
       </c>
       <c r="E20">
-        <v>0.1537656118770911</v>
+        <v>0.165035890118169</v>
       </c>
       <c r="F20">
-        <v>2.31159809642412</v>
+        <v>4.091311183078403</v>
       </c>
       <c r="G20">
-        <v>0.002416443499604631</v>
+        <v>0.0007100728819317337</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2222520949687379</v>
+        <v>0.3563433871495079</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>6.336650659907093</v>
+        <v>12.32582186387395</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07658425336667563</v>
+        <v>0.2682086005095812</v>
       </c>
       <c r="D21">
-        <v>0.1359498649216775</v>
+        <v>0.06020339746413583</v>
       </c>
       <c r="E21">
-        <v>0.1570148470531691</v>
+        <v>0.1852138179808591</v>
       </c>
       <c r="F21">
-        <v>2.421767003689467</v>
+        <v>4.659005651658418</v>
       </c>
       <c r="G21">
-        <v>0.002409849937127243</v>
+        <v>0.0006981767609526699</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2313014016787349</v>
+        <v>0.4051915211706358</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>6.6814300756796</v>
+        <v>14.06426062491823</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08180854445838293</v>
+        <v>0.2913832994739778</v>
       </c>
       <c r="D22">
-        <v>0.1358976581555851</v>
+        <v>0.06208907108911887</v>
       </c>
       <c r="E22">
-        <v>0.1592124517862601</v>
+        <v>0.1989491743514975</v>
       </c>
       <c r="F22">
-        <v>2.495036253509966</v>
+        <v>5.044362986308442</v>
       </c>
       <c r="G22">
-        <v>0.00240569977638522</v>
+        <v>0.0006904114237030741</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2373385043006238</v>
+        <v>0.4384062497359054</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>6.910281055859514</v>
+        <v>15.24411131330123</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07901794153349329</v>
+        <v>0.278939581772562</v>
       </c>
       <c r="D23">
-        <v>0.1359223743079596</v>
+        <v>0.06107242272052105</v>
       </c>
       <c r="E23">
-        <v>0.1580327467680078</v>
+        <v>0.1915630462244735</v>
       </c>
       <c r="F23">
-        <v>2.455814227775591</v>
+        <v>4.837234243618269</v>
       </c>
       <c r="G23">
-        <v>0.002407900290106358</v>
+        <v>0.0006945567720516167</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2341050664453377</v>
+        <v>0.4205480113849092</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>6.787814350591134</v>
+        <v>14.60996069977466</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06849848355020072</v>
+        <v>0.2333224444161885</v>
       </c>
       <c r="D24">
-        <v>0.1360851716060196</v>
+        <v>0.05743395453025357</v>
       </c>
       <c r="E24">
-        <v>0.1537137487797153</v>
+        <v>0.1647142622902997</v>
       </c>
       <c r="F24">
-        <v>2.309818647658062</v>
+        <v>4.082244417041494</v>
       </c>
       <c r="G24">
-        <v>0.002416553966016216</v>
+        <v>0.0007102678340457926</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2221062448667368</v>
+        <v>0.3555640715134274</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>6.331074193523932</v>
+        <v>12.2980526166358</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05725082268372716</v>
+        <v>0.1865868093571237</v>
       </c>
       <c r="D25">
-        <v>0.1364088544316537</v>
+        <v>0.05388989332313798</v>
       </c>
       <c r="E25">
-        <v>0.1493701888532932</v>
+        <v>0.1376507044525965</v>
       </c>
       <c r="F25">
-        <v>2.15769341987405</v>
+        <v>3.316737074165417</v>
       </c>
       <c r="G25">
-        <v>0.002426576956464862</v>
+        <v>0.0007274056849522552</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2096829376187799</v>
+        <v>0.2898729745172801</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>5.853232542874196</v>
+        <v>9.952773694271343</v>
       </c>
     </row>
   </sheetData>
